--- a/example/moral.xlsx
+++ b/example/moral.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prog\Python\ccuoa-client\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7C09D1-36E3-4025-BE09-EA2C8429C2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC057D8-7802-4030-9456-35C6E29B4E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="3690" windowWidth="22905" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>student_id</t>
   </si>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>rec_score</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1054,7 +1058,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1151,7 +1155,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
